--- a/organized/allDataAnalysis4.xlsx
+++ b/organized/allDataAnalysis4.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan Wu\Documents\GitHub\PredictionMarket\organized\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="340" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="345" yWindow="0" windowWidth="25605" windowHeight="14625" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis 4" sheetId="2" r:id="rId1"/>
     <sheet name="allDataAnalysis4.csv" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>reg: equal, man: equal</t>
   </si>
@@ -48,12 +54,36 @@
   <si>
     <t>reg: 996.0, man: 2000.0</t>
   </si>
+  <si>
+    <t>RiskAversion</t>
+  </si>
+  <si>
+    <t>R-Squared Value</t>
+  </si>
+  <si>
+    <t>P-Value</t>
+  </si>
+  <si>
+    <t>Mean Squared Error</t>
+  </si>
+  <si>
+    <t>Man/NonMan Ratio</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -73,6 +103,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,8 +137,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -110,6 +156,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -177,7 +231,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="30.0"/>
+            <c:forward val="30"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -188,124 +242,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.14842259</c:v>
+                  <c:v>38.148422590000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.20648855</c:v>
+                  <c:v>41.206488550000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.74359834</c:v>
+                  <c:v>31.743598339999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.80351025</c:v>
+                  <c:v>28.803510249999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.89633126</c:v>
+                  <c:v>40.896331259999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48.04755836</c:v>
+                  <c:v>48.047558359999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30.05810478</c:v>
+                  <c:v>30.058104780000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42.94801097</c:v>
+                  <c:v>42.948010969999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>25.85102998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>69.51143218</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42.19220509</c:v>
+                  <c:v>42.192205090000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50.13904904</c:v>
+                  <c:v>50.139049040000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>53.50291661</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>51.91255076</c:v>
+                  <c:v>51.912550760000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>55.94719615</c:v>
+                  <c:v>55.947196150000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>59.65429756</c:v>
+                  <c:v>59.654297560000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>49.32271788</c:v>
+                  <c:v>49.322717879999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -317,124 +371,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>81.0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96.0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>85.0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>68.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>91.0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>63.0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>69.0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>78.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>73.0</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -461,7 +515,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="50.0"/>
+            <c:forward val="50"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -472,64 +526,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>40.26863405</c:v>
+                  <c:v>40.268634050000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.51578985</c:v>
+                  <c:v>45.515789849999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.31233312</c:v>
+                  <c:v>46.312333119999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.21648617</c:v>
+                  <c:v>38.216486170000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.45585746</c:v>
+                  <c:v>51.455857459999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43.45478145</c:v>
+                  <c:v>43.454781449999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43.71326647</c:v>
+                  <c:v>43.713266470000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.00353104</c:v>
+                  <c:v>36.003531039999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.51104605</c:v>
+                  <c:v>36.511046049999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -541,64 +595,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.0</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>89.0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>77.0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>95.0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>78.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -625,7 +679,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="40.0"/>
+            <c:forward val="40"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -636,64 +690,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37.07876744</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.69419015</c:v>
+                  <c:v>61.694190149999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.1197292</c:v>
+                  <c:v>37.119729200000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43.72015615</c:v>
+                  <c:v>43.720156150000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38.55539316</c:v>
+                  <c:v>38.555393160000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45.10181076</c:v>
+                  <c:v>45.101810759999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37.04755991</c:v>
+                  <c:v>37.047559909999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -705,64 +759,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73.0</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -777,14 +831,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2138051832"/>
-        <c:axId val="2140965112"/>
+        <c:axId val="-269256768"/>
+        <c:axId val="-269251872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2138051832"/>
+        <c:axId val="-269256768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -811,15 +865,15 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140965112"/>
+        <c:crossAx val="-269251872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2140965112"/>
+        <c:axId val="-269251872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -853,7 +907,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138051832"/>
+        <c:crossAx val="-269256768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -874,7 +928,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -885,7 +939,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564071" cy="5821770"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1232,23 +1286,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H1:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1265,7 +1319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-7.0573984000000006E-2</v>
       </c>
@@ -1282,17 +1336,20 @@
         <v>0.169203677</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C5">
         <f>C4^2</f>
         <v>4.5572448693021609E-3</v>
       </c>
+      <c r="D5">
+        <v>0.678956051</v>
+      </c>
       <c r="E5">
         <f>E4^2</f>
         <v>2.8629884310320326E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1414,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>81</v>
       </c>
@@ -1536,17 +1593,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1563,7 +1620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-5.622742E-3</v>
       </c>
@@ -1580,17 +1637,20 @@
         <v>0.29993212899999999</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C13">
         <f>C12^2</f>
         <v>1.952402596E-5</v>
       </c>
+      <c r="D13">
+        <v>0.98524940299999997</v>
+      </c>
       <c r="E13">
         <f>E12^2</f>
         <v>8.995928200647263E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>40.268634050000003</v>
       </c>
@@ -1652,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>99</v>
       </c>
@@ -1714,17 +1774,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1741,7 +1801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.159443375</v>
       </c>
@@ -1758,17 +1818,20 @@
         <v>0.307276155</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C21">
         <f>C20^2</f>
         <v>1.4737863365758403E-2</v>
       </c>
+      <c r="D21">
+        <v>0.61015652499999995</v>
+      </c>
       <c r="E21">
         <f>E20^2</f>
         <v>9.4418635431584019E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1830,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>28</v>
       </c>
@@ -1900,4 +1963,104 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.5572448693021609E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.678956051</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.8629884310320326E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.952402596E-5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.98524940299999997</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8.995928200647263E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.4737863365758403E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.61015652499999995</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9.4418635431584019E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>